--- a/ppt/00_Agenda.xlsx
+++ b/ppt/00_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan.oehrli/Development/github/oehrlis/oci-sec-ws/ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36147EE4-50E9-2E43-BB55-EB9DBD33B5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C956B-C5AA-B145-8DA1-3126490453B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44700" yWindow="3820" windowWidth="33400" windowHeight="20420" xr2:uid="{02FE6E0B-BB26-4F4B-A9CB-669201461D18}"/>
+    <workbookView xWindow="51020" yWindow="4500" windowWidth="33400" windowHeight="20420" xr2:uid="{02FE6E0B-BB26-4F4B-A9CB-669201461D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Data Safe</t>
   </si>
   <si>
-    <t>Security Zones</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Wrap-Up</t>
   </si>
   <si>
-    <t>Other Topics</t>
-  </si>
-  <si>
     <t>Overview, Recipes, CIS Scans, Remediation, Alerts, and Events</t>
   </si>
   <si>
@@ -101,10 +95,16 @@
     <t>In-Transit Encryption, Shielded Instances, Key Management</t>
   </si>
   <si>
-    <t xml:space="preserve"> Overview, Zone Management, Rulesets, and CIS Compliance</t>
-  </si>
-  <si>
     <t>Introduction, Setup, Auditing, Data Masking, Assessments, and Alerts</t>
+  </si>
+  <si>
+    <t>Basis OCI Security</t>
+  </si>
+  <si>
+    <t>Security Zones / Web Application Firewall</t>
+  </si>
+  <si>
+    <t>Overview, Zone Management, Rulesets, and CIS Compliance</t>
   </si>
 </sst>
 </file>
@@ -520,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB0C26-D80B-1040-A2E8-4F2176F3B166}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,19 +537,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -630,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -671,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -712,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -779,6 +779,15 @@
         <v>0.20833333333333326</v>
       </c>
     </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ppt/00_Agenda.xlsx
+++ b/ppt/00_Agenda.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefan.oehrli/Development/github/oehrlis/oci-sec-ws/ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C956B-C5AA-B145-8DA1-3126490453B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53E15A-B359-0B4C-BEC6-BB1FCB396E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51020" yWindow="4500" windowWidth="33400" windowHeight="20420" xr2:uid="{02FE6E0B-BB26-4F4B-A9CB-669201461D18}"/>
+    <workbookView xWindow="1080" yWindow="760" windowWidth="33400" windowHeight="20400" activeTab="1" xr2:uid="{02FE6E0B-BB26-4F4B-A9CB-669201461D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Start</t>
   </si>
@@ -105,6 +106,198 @@
   </si>
   <si>
     <t>Overview, Zone Management, Rulesets, and CIS Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exercise ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chapter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exercise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL / Slug </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duration </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCI Setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Started with OCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/oci-setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to OCI, including an overview of the architecture and first login. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basic OCI Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/bs-key-management </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and manage encryption keys within a customer-managed key vault. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Guard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manual Remediation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/cg-manual-remediation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configure manual remediation for detected security risks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auto Remediation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/cg-auto-remediation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate responses to detected security vulnerabilities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notification Setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/cg-notification-setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set up notifications to monitor and alert on security-related events. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Safe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configuration and Register ADB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-config </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Initial setup of Oracle Data Safe, including registration of an Autonomous Database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assess Database Configurations </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-config-assess </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Use Oracle Data Safe to assess database configurations for compliance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assess Database Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-user-assess </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Review and analyze database user accounts with Oracle Data Safe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audit Database Activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-audit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitor and audit database activity for enhanced security visibility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Generate Alerts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-alerts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configure and generate alerts based on Oracle Data Safe findings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discover Sensitive Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-sensitive </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identify and classify sensitive data within the database using Oracle Data Safe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQL Firewall </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/ds-sql-firewall </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implement SQL Firewall to manage and restrict SQL execution within the database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ex04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Zones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/sz-zones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configure Security Zones to enforce compliance and security policies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Application Firewall (WAF) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /lab/sz-waf </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set up and test the Web Application Firewall to protect applications from threats. </t>
   </si>
 </sst>
 </file>
@@ -522,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB0C26-D80B-1040-A2E8-4F2176F3B166}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -791,4 +984,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE1B01-5B2D-5A47-8260-D4545D1DA599}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>